--- a/doc/项目计划/爱体验-开发计划.xlsx
+++ b/doc/项目计划/爱体验-开发计划.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="开发计划" sheetId="1" r:id="rId1"/>
-    <sheet name="功能待完善" sheetId="2" r:id="rId2"/>
+    <sheet name="其他要做的" sheetId="3" r:id="rId2"/>
+    <sheet name="项目功能待完善" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>功能名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加链接，修改删除链接功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据字典的增删改查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,6 +166,26 @@
   </si>
   <si>
     <t>增加论坛功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时推送消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计网站访问量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目信息添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,16 +565,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
     <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -567,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>17</v>
@@ -576,151 +593,140 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3">
-        <v>42455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="D2:D3">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"计划中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="D6">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"计划中"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D2:D3">
       <formula1>"计划中,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -730,6 +736,77 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="57.5" customWidth="1"/>
+    <col min="4" max="4" width="40.375" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3">
+        <v>42455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -766,10 +843,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
